--- a/Measurement_Results/UV-VIS/15.3.16/GNP_2.5_20k2.xlsx
+++ b/Measurement_Results/UV-VIS/15.3.16/GNP_2.5_20k2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="28720" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Met Zout" sheetId="1" r:id="rId1"/>
@@ -18646,11 +18646,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120285552"/>
-        <c:axId val="2120263776"/>
+        <c:axId val="-2144714896"/>
+        <c:axId val="-2144724736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2120285552"/>
+        <c:axId val="-2144714896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18660,12 +18660,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120263776"/>
+        <c:crossAx val="-2144724736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2120263776"/>
+        <c:axId val="-2144724736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18676,7 +18676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120285552"/>
+        <c:crossAx val="-2144714896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -36941,11 +36941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120840704"/>
-        <c:axId val="2120261536"/>
+        <c:axId val="-2143608720"/>
+        <c:axId val="-2143605952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2120840704"/>
+        <c:axId val="-2143608720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -36955,12 +36955,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120261536"/>
+        <c:crossAx val="-2143605952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2120261536"/>
+        <c:axId val="-2143605952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -36971,7 +36971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120840704"/>
+        <c:crossAx val="-2143608720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -37352,7 +37352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WD40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:A40"/>
     </sheetView>
   </sheetViews>
@@ -55086,7 +55086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:A45"/>
     </sheetView>
   </sheetViews>
